--- a/data/geo_fdata/BagoueDataset2.xlsx
+++ b/data/geo_fdata/BagoueDataset2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10cde573bc79669c/Python/watex/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repositories\watex\data\geo_fdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C873475-8FB7-450E-A5D5-F6304EE74ADD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A88BE6-FCFD-4D25-A10D-40C986022474}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="20460" windowHeight="6945"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="20460" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="151">
   <si>
     <t>V</t>
   </si>
@@ -437,14 +437,50 @@
   </si>
   <si>
     <t>VOLCANO- SEDIM.  SCHISTS</t>
+  </si>
+  <si>
+    <t>boreh</t>
+  </si>
+  <si>
+    <t>x_m</t>
+  </si>
+  <si>
+    <t>y_m</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>SFI</t>
+  </si>
+  <si>
+    <t>OhmS</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>geol</t>
+  </si>
+  <si>
+    <t>flow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -507,17 +543,17 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Well inventory 1" xfId="1"/>
-    <cellStyle name="Normal_Well inventory4  - Dpt_TVYZ" xfId="2"/>
+    <cellStyle name="Normal_Well inventory 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Well inventory4  - Dpt_TVYZ" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -828,11 +864,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -841,70 +877,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2">
-        <v>766096</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1134857</v>
-      </c>
-      <c r="D1" s="2">
-        <v>70</v>
-      </c>
-      <c r="E1" s="2">
-        <v>225.905</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1">
-        <v>1.4572281518337213</v>
-      </c>
-      <c r="I1" s="2">
-        <v>634</v>
-      </c>
-      <c r="J1" s="2">
-        <v>14.700000000000003</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
+      <c r="A1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>741220</v>
+        <v>766096</v>
       </c>
       <c r="C2" s="2">
-        <v>1132591</v>
+        <v>1134857</v>
       </c>
       <c r="D2" s="2">
         <v>70</v>
       </c>
       <c r="E2" s="2">
-        <v>139.78200000000001</v>
+        <v>225.905</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H2">
-        <v>0.96713084469946808</v>
+        <v>1.4572281518337213</v>
       </c>
       <c r="I2" s="2">
-        <v>435</v>
+        <v>634</v>
       </c>
       <c r="J2" s="2">
         <v>14.700000000000003</v>
@@ -918,72 +954,72 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>770409</v>
+        <v>741220</v>
       </c>
       <c r="C3" s="2">
-        <v>1158750</v>
+        <v>1132591</v>
       </c>
       <c r="D3" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2">
-        <v>44.864000000000004</v>
+        <v>139.78200000000001</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H3">
-        <v>5.5638055854096313</v>
+        <v>0.96713084469946808</v>
       </c>
       <c r="I3" s="2">
-        <v>720</v>
+        <v>435</v>
       </c>
       <c r="J3" s="2">
-        <v>12.399999999999999</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>758899</v>
+        <v>770409</v>
       </c>
       <c r="C4" s="2">
-        <v>1049812</v>
+        <v>1158750</v>
       </c>
       <c r="D4" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2">
-        <v>30.4895</v>
+        <v>44.864000000000004</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H4">
-        <v>5.6664511738686629</v>
+        <v>5.5638055854096313</v>
       </c>
       <c r="I4" s="2">
-        <v>699</v>
+        <v>720</v>
       </c>
       <c r="J4" s="2">
-        <v>21.199999999999996</v>
+        <v>12.399999999999999</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>136</v>
@@ -994,19 +1030,19 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>742530</v>
+        <v>758899</v>
       </c>
       <c r="C5" s="2">
-        <v>1116498</v>
+        <v>1049812</v>
       </c>
       <c r="D5" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2">
-        <v>31.655000000000001</v>
+        <v>30.4895</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>0</v>
@@ -1015,279 +1051,279 @@
         <v>132</v>
       </c>
       <c r="H5">
-        <v>6.0342815246050865</v>
+        <v>5.6664511738686629</v>
       </c>
       <c r="I5" s="2">
-        <v>13</v>
+        <v>699</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>21.199999999999996</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>746614</v>
+        <v>742530</v>
       </c>
       <c r="C6" s="2">
-        <v>1089390</v>
+        <v>1116498</v>
       </c>
       <c r="D6" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2">
-        <v>57.917499999999997</v>
+        <v>31.655000000000001</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6">
-        <v>2.0886674640885792</v>
+        <v>6.0342815246050865</v>
       </c>
       <c r="I6" s="2">
-        <v>254.10000000000002</v>
+        <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>760253</v>
+        <v>746614</v>
       </c>
       <c r="C7" s="2">
-        <v>1113640</v>
+        <v>1089390</v>
       </c>
       <c r="D7" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2">
-        <v>115.96</v>
+        <v>57.917499999999997</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H7">
-        <v>2.3655158488578101</v>
+        <v>2.0886674640885792</v>
       </c>
       <c r="I7" s="2">
-        <v>689.7</v>
+        <v>254.10000000000002</v>
       </c>
       <c r="J7" s="2">
-        <v>21.7</v>
+        <v>8.5</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>795909</v>
+        <v>760253</v>
       </c>
       <c r="C8" s="2">
-        <v>1156275</v>
+        <v>1113640</v>
       </c>
       <c r="D8" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2">
-        <v>306.798</v>
+        <v>115.96</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8">
-        <v>0.94943630720097061</v>
+        <v>2.3655158488578101</v>
       </c>
       <c r="I8" s="2">
-        <v>369.6</v>
+        <v>689.7</v>
       </c>
       <c r="J8" s="2">
-        <v>12</v>
+        <v>21.7</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L8" s="1">
-        <v>1.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>794621</v>
+        <v>795909</v>
       </c>
       <c r="C9" s="2">
-        <v>1131207</v>
+        <v>1156275</v>
       </c>
       <c r="D9" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2">
-        <v>43.465499999999999</v>
+        <v>306.798</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>133</v>
       </c>
       <c r="H9">
-        <v>1.5266765377259546</v>
+        <v>0.94943630720097061</v>
       </c>
       <c r="I9" s="2">
-        <v>115.50000000000013</v>
+        <v>369.6</v>
       </c>
       <c r="J9" s="2">
-        <v>4.3000000000000043</v>
+        <v>12</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>794430</v>
+        <v>794621</v>
       </c>
       <c r="C10" s="2">
-        <v>1118080</v>
+        <v>1131207</v>
       </c>
       <c r="D10" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2">
-        <v>310.28199999999998</v>
+        <v>43.465499999999999</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10">
+        <v>1.5266765377259546</v>
+      </c>
+      <c r="I10" s="2">
+        <v>115.50000000000013</v>
+      </c>
+      <c r="J10" s="2">
+        <v>4.3000000000000043</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L10" s="1">
         <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10">
-        <v>0.60695604546076942</v>
-      </c>
-      <c r="I10" s="2">
-        <v>306.90000000000009</v>
-      </c>
-      <c r="J10" s="2">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1.3</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>808349</v>
+        <v>794430</v>
       </c>
       <c r="C11" s="2">
-        <v>1086127</v>
+        <v>1118080</v>
       </c>
       <c r="D11" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2">
-        <v>121.212</v>
+        <v>310.28199999999998</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H11">
-        <v>0.42160255719070766</v>
+        <v>0.60695604546076942</v>
       </c>
       <c r="I11" s="2">
-        <v>1257.3000000000002</v>
+        <v>306.90000000000009</v>
       </c>
       <c r="J11" s="2">
-        <v>38.9</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L11" s="1">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>781455</v>
+        <v>808349</v>
       </c>
       <c r="C12" s="2">
-        <v>1070104</v>
+        <v>1086127</v>
       </c>
       <c r="D12" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2">
-        <v>212.38</v>
+        <v>121.212</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H12">
-        <v>0.35526189231573452</v>
+        <v>0.42160255719070766</v>
       </c>
       <c r="I12" s="2">
-        <v>877.80000000000007</v>
+        <v>1257.3000000000002</v>
       </c>
       <c r="J12" s="2">
-        <v>27.4</v>
+        <v>38.9</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>137</v>
@@ -1298,133 +1334,133 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>750193</v>
+        <v>781455</v>
       </c>
       <c r="C13" s="2">
-        <v>1075846</v>
+        <v>1070104</v>
       </c>
       <c r="D13" s="2">
         <v>50</v>
       </c>
       <c r="E13" s="2">
-        <v>154.364</v>
+        <v>212.38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>134</v>
       </c>
       <c r="H13">
-        <v>0.68773188240339045</v>
+        <v>0.35526189231573452</v>
       </c>
       <c r="I13" s="2">
-        <v>455.40000000000009</v>
+        <v>877.80000000000007</v>
       </c>
       <c r="J13" s="2">
-        <v>14.600000000000001</v>
+        <v>27.4</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>774597</v>
+        <v>750193</v>
       </c>
       <c r="C14" s="2">
-        <v>1045150</v>
+        <v>1075846</v>
       </c>
       <c r="D14" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2">
-        <v>77.11</v>
+        <v>154.364</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H14">
-        <v>3.4851143200296661</v>
+        <v>0.68773188240339045</v>
       </c>
       <c r="I14" s="2">
-        <v>709.50000000000011</v>
+        <v>455.40000000000009</v>
       </c>
       <c r="J14" s="2">
-        <v>22.3</v>
+        <v>14.600000000000001</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" s="1">
-        <v>3.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>764855</v>
+        <v>774597</v>
       </c>
       <c r="C15" s="2">
-        <v>1064466</v>
+        <v>1045150</v>
       </c>
       <c r="D15" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2">
-        <v>85.27</v>
+        <v>77.11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H15">
-        <v>2.90290807816262</v>
+        <v>3.4851143200296661</v>
       </c>
       <c r="I15" s="2">
-        <v>881.10000000000025</v>
+        <v>709.50000000000011</v>
       </c>
       <c r="J15" s="2">
-        <v>27.500000000000004</v>
+        <v>22.3</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>784263</v>
+        <v>764855</v>
       </c>
       <c r="C16" s="2">
-        <v>1151405</v>
+        <v>1064466</v>
       </c>
       <c r="D16" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2">
-        <v>90.021000000000001</v>
+        <v>85.27</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>1</v>
@@ -1433,36 +1469,36 @@
         <v>132</v>
       </c>
       <c r="H16">
-        <v>0.97876786650111214</v>
+        <v>2.90290807816262</v>
       </c>
       <c r="I16" s="2">
-        <v>313.49999999999989</v>
+        <v>881.10000000000025</v>
       </c>
       <c r="J16" s="2">
-        <v>10.299999999999997</v>
+        <v>27.500000000000004</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L16" s="1">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>757473</v>
+        <v>784263</v>
       </c>
       <c r="C17" s="2">
-        <v>1038769</v>
+        <v>1151405</v>
       </c>
       <c r="D17" s="2">
         <v>60</v>
       </c>
       <c r="E17" s="2">
-        <v>35.151499999999999</v>
+        <v>90.021000000000001</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>1</v>
@@ -1471,393 +1507,393 @@
         <v>132</v>
       </c>
       <c r="H17">
-        <v>2.0550197853233181</v>
+        <v>0.97876786650111214</v>
       </c>
       <c r="I17" s="2">
-        <v>435.6</v>
+        <v>313.49999999999989</v>
       </c>
       <c r="J17" s="2">
-        <v>14</v>
+        <v>10.299999999999997</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L17" s="1">
-        <v>32.200000000000003</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>748854</v>
+        <v>757473</v>
       </c>
       <c r="C18" s="2">
-        <v>1051386</v>
+        <v>1038769</v>
       </c>
       <c r="D18" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2">
-        <v>33.676000000000002</v>
+        <v>35.151499999999999</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H18">
-        <v>3.3625436868211827</v>
+        <v>2.0550197853233181</v>
       </c>
       <c r="I18" s="2">
-        <v>333.29999999999995</v>
+        <v>435.6</v>
       </c>
       <c r="J18" s="2">
-        <v>10.899999999999999</v>
+        <v>14</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L18" s="1">
-        <v>10</v>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>750255</v>
+        <v>748854</v>
       </c>
       <c r="C19" s="2">
-        <v>1066603</v>
+        <v>1051386</v>
       </c>
       <c r="D19" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2">
-        <v>47.195</v>
+        <v>33.676000000000002</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H19">
-        <v>1.8979319812007815</v>
+        <v>3.3625436868211827</v>
       </c>
       <c r="I19" s="2">
-        <v>587.40000000000009</v>
+        <v>333.29999999999995</v>
       </c>
       <c r="J19" s="2">
-        <v>18.600000000000001</v>
+        <v>10.899999999999999</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>788340</v>
+        <v>750255</v>
       </c>
       <c r="C20" s="2">
-        <v>1033768</v>
+        <v>1066603</v>
       </c>
       <c r="D20" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2">
-        <v>39.424999999999997</v>
+        <v>47.195</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H20">
-        <v>8.9714664478252644</v>
+        <v>1.8979319812007815</v>
       </c>
       <c r="I20" s="2">
-        <v>409.19999999999993</v>
+        <v>587.40000000000009</v>
       </c>
       <c r="J20" s="2">
-        <v>13.199999999999996</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L20" s="1">
-        <v>6.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>807067</v>
+        <v>788340</v>
       </c>
       <c r="C21" s="2">
-        <v>1060163</v>
+        <v>1033768</v>
       </c>
       <c r="D21" s="2">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="E21" s="2">
-        <v>50.691500000000005</v>
+        <v>39.424999999999997</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H21">
-        <v>1.1227620757722536</v>
+        <v>8.9714664478252644</v>
       </c>
       <c r="I21" s="2">
-        <v>379.49999999999989</v>
+        <v>409.19999999999993</v>
       </c>
       <c r="J21" s="2">
-        <v>12.299999999999997</v>
+        <v>13.199999999999996</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L21" s="1">
-        <v>10.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>780824</v>
+        <v>807067</v>
       </c>
       <c r="C22" s="2">
-        <v>1113646</v>
+        <v>1060163</v>
       </c>
       <c r="D22" s="2">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2">
-        <v>32.432000000000002</v>
+        <v>50.691500000000005</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H22">
-        <v>7.8667610309084655</v>
+        <v>1.1227620757722536</v>
       </c>
       <c r="I22" s="2">
-        <v>359.70000000000005</v>
+        <v>379.49999999999989</v>
       </c>
       <c r="J22" s="2">
-        <v>11.7</v>
+        <v>12.299999999999997</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L22" s="1">
-        <v>9</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>740699</v>
+        <v>780824</v>
       </c>
       <c r="C23" s="2">
-        <v>1104707</v>
+        <v>1113646</v>
       </c>
       <c r="D23" s="2">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2">
-        <v>42.533000000000001</v>
+        <v>32.432000000000002</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H23">
-        <v>1.1203475811360839</v>
+        <v>7.8667610309084655</v>
       </c>
       <c r="I23" s="2">
-        <v>765.6</v>
+        <v>359.70000000000005</v>
       </c>
       <c r="J23" s="2">
-        <v>24</v>
+        <v>11.7</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L23" s="1">
-        <v>1.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>741187</v>
+        <v>740699</v>
       </c>
       <c r="C24" s="2">
-        <v>1076085</v>
+        <v>1104707</v>
       </c>
       <c r="D24" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2">
-        <v>147.87899999999999</v>
+        <v>42.533000000000001</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H24">
-        <v>0.99262751380523206</v>
+        <v>1.1203475811360839</v>
       </c>
       <c r="I24" s="2">
-        <v>283.79999999999995</v>
+        <v>765.6</v>
       </c>
       <c r="J24" s="2">
-        <v>9.3999999999999986</v>
+        <v>24</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L24" s="1">
-        <v>3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>734699</v>
+        <v>741187</v>
       </c>
       <c r="C25" s="2">
-        <v>1057557</v>
+        <v>1076085</v>
       </c>
       <c r="D25" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2">
-        <v>563.9</v>
+        <v>147.87899999999999</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H25">
-        <v>1.1618664638882048</v>
+        <v>0.99262751380523206</v>
       </c>
       <c r="I25" s="2">
-        <v>369.6</v>
+        <v>283.79999999999995</v>
       </c>
       <c r="J25" s="2">
-        <v>12</v>
+        <v>9.3999999999999986</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L25" s="1">
-        <v>1.1000000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>740750</v>
+        <v>734699</v>
       </c>
       <c r="C26" s="2">
-        <v>1050439</v>
+        <v>1057557</v>
       </c>
       <c r="D26" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2">
-        <v>58.073</v>
+        <v>563.9</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H26">
-        <v>2.4690414202690061</v>
+        <v>1.1618664638882048</v>
       </c>
       <c r="I26" s="2">
-        <v>491.70000000000016</v>
+        <v>369.6</v>
       </c>
       <c r="J26" s="2">
-        <v>15.700000000000003</v>
+        <v>12</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L26" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>747116</v>
+        <v>740750</v>
       </c>
       <c r="C27" s="2">
-        <v>1041534</v>
+        <v>1050439</v>
       </c>
       <c r="D27" s="2">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2">
-        <v>161.85499999999999</v>
+        <v>58.073</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H27">
-        <v>2.213558427855447</v>
+        <v>2.4690414202690061</v>
       </c>
       <c r="I27" s="2">
-        <v>874.5</v>
+        <v>491.70000000000016</v>
       </c>
       <c r="J27" s="2">
-        <v>27.299999999999997</v>
+        <v>15.700000000000003</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>137</v>
@@ -1868,57 +1904,57 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>753185</v>
+        <v>747116</v>
       </c>
       <c r="C28" s="2">
-        <v>1032330</v>
+        <v>1041534</v>
       </c>
       <c r="D28" s="2">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E28" s="2">
-        <v>545.45399999999995</v>
+        <v>161.85499999999999</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H28">
-        <v>0.47542818293543909</v>
+        <v>2.213558427855447</v>
       </c>
       <c r="I28" s="2">
-        <v>485.1</v>
+        <v>874.5</v>
       </c>
       <c r="J28" s="2">
-        <v>15.5</v>
+        <v>27.299999999999997</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L28" s="1">
-        <v>1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>772751</v>
+        <v>753185</v>
       </c>
       <c r="C29" s="2">
-        <v>1027989</v>
+        <v>1032330</v>
       </c>
       <c r="D29" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2">
-        <v>77.884999999999991</v>
+        <v>545.45399999999995</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>0</v>
@@ -1927,112 +1963,112 @@
         <v>133</v>
       </c>
       <c r="H29">
-        <v>1.0594829527541325</v>
+        <v>0.47542818293543909</v>
       </c>
       <c r="I29" s="2">
-        <v>283.23</v>
+        <v>485.1</v>
       </c>
       <c r="J29" s="2">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L29" s="1">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>784518</v>
+        <v>772751</v>
       </c>
       <c r="C30" s="2">
-        <v>1022108</v>
+        <v>1027989</v>
       </c>
       <c r="D30" s="2">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="E30" s="2">
-        <v>53.799500000000002</v>
+        <v>77.884999999999991</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H30">
-        <v>8.1160926227238637</v>
+        <v>1.0594829527541325</v>
       </c>
       <c r="I30" s="2">
-        <v>910.80000000000007</v>
+        <v>283.23</v>
       </c>
       <c r="J30" s="2">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L30" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2">
-        <v>743584</v>
+        <v>784518</v>
       </c>
       <c r="C31" s="2">
-        <v>1029883</v>
+        <v>1022108</v>
       </c>
       <c r="D31" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E31" s="2">
-        <v>116.35</v>
+        <v>53.799500000000002</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H31">
-        <v>3.3244042767416211</v>
+        <v>8.1160926227238637</v>
       </c>
       <c r="I31" s="2">
-        <v>504.89999999999986</v>
+        <v>910.80000000000007</v>
       </c>
       <c r="J31" s="2">
-        <v>16.099999999999994</v>
+        <v>28.4</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="L31" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
-        <v>731219</v>
+        <v>743584</v>
       </c>
       <c r="C32" s="2">
-        <v>1037261</v>
+        <v>1029883</v>
       </c>
       <c r="D32" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2">
-        <v>233.1</v>
+        <v>116.35</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>0</v>
@@ -2041,311 +2077,311 @@
         <v>132</v>
       </c>
       <c r="H32">
-        <v>0.90413201128969067</v>
+        <v>3.3244042767416211</v>
       </c>
       <c r="I32" s="2">
-        <v>428.99999999999989</v>
+        <v>504.89999999999986</v>
       </c>
       <c r="J32" s="2">
-        <v>13.799999999999997</v>
+        <v>16.099999999999994</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="L32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
-        <v>796426</v>
+        <v>731219</v>
       </c>
       <c r="C33" s="2">
-        <v>1113175</v>
+        <v>1037261</v>
       </c>
       <c r="D33" s="2">
         <v>40</v>
       </c>
       <c r="E33" s="2">
-        <v>139.66</v>
+        <v>233.1</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H33">
-        <v>1.4832638492601491</v>
+        <v>0.90413201128969067</v>
       </c>
       <c r="I33" s="2">
-        <v>465.29999999999995</v>
+        <v>428.99999999999989</v>
       </c>
       <c r="J33" s="2">
-        <v>14.899999999999999</v>
+        <v>13.799999999999997</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L33" s="1">
-        <v>3.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>757219</v>
+        <v>796426</v>
       </c>
       <c r="C34" s="2">
-        <v>1142992</v>
+        <v>1113175</v>
       </c>
       <c r="D34" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2">
-        <v>191.27199999999999</v>
+        <v>139.66</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H34">
-        <v>0.84761051182031388</v>
+        <v>1.4832638492601491</v>
       </c>
       <c r="I34" s="2">
-        <v>316.79999999999995</v>
+        <v>465.29999999999995</v>
       </c>
       <c r="J34" s="2">
-        <v>10.399999999999999</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L34" s="1">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2">
-        <v>774803</v>
+        <v>757219</v>
       </c>
       <c r="C35" s="2">
-        <v>1155057</v>
+        <v>1142992</v>
       </c>
       <c r="D35" s="2">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2">
-        <v>863.05</v>
+        <v>191.27199999999999</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H35">
-        <v>2.7438651663308931</v>
+        <v>0.84761051182031388</v>
       </c>
       <c r="I35" s="2">
-        <v>310.20000000000016</v>
+        <v>316.79999999999995</v>
       </c>
       <c r="J35" s="2">
-        <v>10.200000000000003</v>
+        <v>10.399999999999999</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L35" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2">
-        <v>788134</v>
+        <v>774803</v>
       </c>
       <c r="C36" s="2">
-        <v>1136970</v>
+        <v>1155057</v>
       </c>
       <c r="D36" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="E36" s="2">
-        <v>619.04999999999995</v>
+        <v>863.05</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36">
+        <v>2.7438651663308931</v>
+      </c>
+      <c r="I36" s="2">
+        <v>310.20000000000016</v>
+      </c>
+      <c r="J36" s="2">
+        <v>10.200000000000003</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L36" s="1">
         <v>3</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H36">
-        <v>1.2357991160712081</v>
-      </c>
-      <c r="I36" s="2">
-        <v>1194.6000000000001</v>
-      </c>
-      <c r="J36" s="2">
-        <v>37</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="L36" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2">
-        <v>768626</v>
+        <v>788134</v>
       </c>
       <c r="C37" s="2">
-        <v>1058976</v>
+        <v>1136970</v>
       </c>
       <c r="D37" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2">
-        <v>888.7</v>
+        <v>619.04999999999995</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37">
+        <v>1.2357991160712081</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1194.6000000000001</v>
+      </c>
+      <c r="J37" s="2">
+        <v>37</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L37" s="1">
         <v>1</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37">
-        <v>1.5233332195934524</v>
-      </c>
-      <c r="I37" s="2">
-        <v>1181.3999999999999</v>
-      </c>
-      <c r="J37" s="2">
-        <v>36.599999999999994</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="L37" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2">
-        <v>752933</v>
+        <v>768626</v>
       </c>
       <c r="C38" s="2">
-        <v>1024873</v>
+        <v>1058976</v>
       </c>
       <c r="D38" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2">
-        <v>166.85499999999999</v>
+        <v>888.7</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H38">
-        <v>2.213558427855447</v>
+        <v>1.5233332195934524</v>
       </c>
       <c r="I38" s="2">
-        <v>1062.6000000000001</v>
+        <v>1181.3999999999999</v>
       </c>
       <c r="J38" s="2">
-        <v>33</v>
+        <v>36.599999999999994</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L38" s="1">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2">
-        <v>773707</v>
+        <v>752933</v>
       </c>
       <c r="C39" s="2">
-        <v>1020241</v>
+        <v>1024873</v>
       </c>
       <c r="D39" s="2">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="E39" s="2">
-        <v>259.625</v>
+        <v>166.85499999999999</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H39">
-        <v>2.7071467666229911</v>
+        <v>2.213558427855447</v>
       </c>
       <c r="I39" s="2">
-        <v>458.70000000000016</v>
+        <v>1062.6000000000001</v>
       </c>
       <c r="J39" s="2">
-        <v>14.700000000000003</v>
+        <v>33</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L39" s="1">
-        <v>2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2">
-        <v>781669</v>
+        <v>773707</v>
       </c>
       <c r="C40" s="2">
-        <v>1041772</v>
+        <v>1020241</v>
       </c>
       <c r="D40" s="2">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E40" s="2">
-        <v>848.65</v>
+        <v>259.625</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H40">
-        <v>2.5696757728340565</v>
+        <v>2.7071467666229911</v>
       </c>
       <c r="I40" s="2">
         <v>458.70000000000016</v>
@@ -2362,57 +2398,57 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2">
-        <v>788704</v>
+        <v>781669</v>
       </c>
       <c r="C41" s="2">
-        <v>1065089</v>
+        <v>1041772</v>
       </c>
       <c r="D41" s="2">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="E41" s="2">
-        <v>299.72000000000003</v>
+        <v>848.65</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H41">
-        <v>3.373098764524967</v>
+        <v>2.5696757728340565</v>
       </c>
       <c r="I41" s="2">
-        <v>382.79999999999995</v>
+        <v>458.70000000000016</v>
       </c>
       <c r="J41" s="2">
-        <v>12.399999999999999</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2">
-        <v>793648</v>
+        <v>788704</v>
       </c>
       <c r="C42" s="2">
-        <v>1085709</v>
+        <v>1065089</v>
       </c>
       <c r="D42" s="2">
         <v>60</v>
       </c>
       <c r="E42" s="2">
-        <v>640.79999999999995</v>
+        <v>299.72000000000003</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>0</v>
@@ -2421,188 +2457,188 @@
         <v>132</v>
       </c>
       <c r="H42">
-        <v>1.9741381746437483</v>
+        <v>3.373098764524967</v>
       </c>
       <c r="I42" s="2">
-        <v>673.19999999999993</v>
+        <v>382.79999999999995</v>
       </c>
       <c r="J42" s="2">
-        <v>21.199999999999996</v>
+        <v>12.399999999999999</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L42" s="1">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2">
-        <v>785248</v>
+        <v>793648</v>
       </c>
       <c r="C43" s="2">
-        <v>1085047</v>
+        <v>1085709</v>
       </c>
       <c r="D43" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E43" s="2">
-        <v>34.296999999999997</v>
+        <v>640.79999999999995</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H43">
-        <v>2.9784801091444626</v>
+        <v>1.9741381746437483</v>
       </c>
       <c r="I43" s="2">
-        <v>26.4</v>
+        <v>673.19999999999993</v>
       </c>
       <c r="J43" s="2">
-        <v>0</v>
+        <v>21.199999999999996</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L43" s="1">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2">
-        <v>774778</v>
+        <v>785248</v>
       </c>
       <c r="C44" s="2">
-        <v>1080195</v>
+        <v>1085047</v>
       </c>
       <c r="D44" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2">
-        <v>41.756</v>
+        <v>34.296999999999997</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H44">
-        <v>5.9734908999182101</v>
+        <v>2.9784801091444626</v>
       </c>
       <c r="I44" s="2">
-        <v>254.10000000000002</v>
+        <v>26.4</v>
       </c>
       <c r="J44" s="2">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L44" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2">
-        <v>764606</v>
+        <v>774778</v>
       </c>
       <c r="C45" s="2">
-        <v>1075350</v>
+        <v>1080195</v>
       </c>
       <c r="D45" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E45" s="2">
-        <v>30.100999999999999</v>
+        <v>41.756</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H45">
-        <v>10.604451893116799</v>
+        <v>5.9734908999182101</v>
       </c>
       <c r="I45" s="2">
-        <v>689.7</v>
+        <v>254.10000000000002</v>
       </c>
       <c r="J45" s="2">
-        <v>21.7</v>
+        <v>8.5</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L45" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2">
-        <v>754920</v>
+        <v>764606</v>
       </c>
       <c r="C46" s="2">
-        <v>1086912</v>
+        <v>1075350</v>
       </c>
       <c r="D46" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2">
-        <v>41.756</v>
+        <v>30.100999999999999</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H46">
-        <v>5.9734908999182101</v>
+        <v>10.604451893116799</v>
       </c>
       <c r="I46" s="2">
-        <v>369.6</v>
+        <v>689.7</v>
       </c>
       <c r="J46" s="2">
-        <v>12</v>
+        <v>21.7</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L46" s="1">
-        <v>1.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2">
-        <v>766872</v>
+        <v>754920</v>
       </c>
       <c r="C47" s="2">
-        <v>1094154</v>
+        <v>1086912</v>
       </c>
       <c r="D47" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E47" s="2">
-        <v>50.302999999999997</v>
+        <v>41.756</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>0</v>
@@ -2611,36 +2647,36 @@
         <v>132</v>
       </c>
       <c r="H47">
-        <v>2.5063855326394933</v>
+        <v>5.9734908999182101</v>
       </c>
       <c r="I47" s="2">
-        <v>115.50000000000013</v>
+        <v>369.6</v>
       </c>
       <c r="J47" s="2">
-        <v>4.3000000000000043</v>
+        <v>12</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L47" s="1">
-        <v>1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2">
-        <v>774222</v>
+        <v>766872</v>
       </c>
       <c r="C48" s="2">
-        <v>1114191</v>
+        <v>1094154</v>
       </c>
       <c r="D48" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E48" s="2">
-        <v>40.046500000000002</v>
+        <v>50.302999999999997</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>0</v>
@@ -2649,89 +2685,89 @@
         <v>132</v>
       </c>
       <c r="H48">
-        <v>6.2429918423561812</v>
+        <v>2.5063855326394933</v>
       </c>
       <c r="I48" s="2">
-        <v>10.5</v>
+        <v>115.50000000000013</v>
       </c>
       <c r="J48" s="2">
-        <v>10.100000000000001</v>
+        <v>4.3000000000000043</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L48" s="1">
-        <v>1.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2">
-        <v>776482</v>
+        <v>774222</v>
       </c>
       <c r="C49" s="2">
-        <v>1132104</v>
+        <v>1114191</v>
       </c>
       <c r="D49" s="2">
         <v>70</v>
       </c>
       <c r="E49" s="2">
-        <v>39.580500000000001</v>
+        <v>40.046500000000002</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H49">
-        <v>4.1934124140386801</v>
+        <v>6.2429918423561812</v>
       </c>
       <c r="I49" s="2">
-        <v>1257.3000000000002</v>
+        <v>10.5</v>
       </c>
       <c r="J49" s="2">
-        <v>38.9</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L49" s="1">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2">
-        <v>766018</v>
+        <v>776482</v>
       </c>
       <c r="C50" s="2">
-        <v>1128445</v>
+        <v>1132104</v>
       </c>
       <c r="D50" s="2">
         <v>70</v>
       </c>
       <c r="E50" s="2">
-        <v>65.221499999999992</v>
+        <v>39.580500000000001</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H50">
-        <v>1.5883369669963161</v>
+        <v>4.1934124140386801</v>
       </c>
       <c r="I50" s="2">
-        <v>100.78</v>
+        <v>1257.3000000000002</v>
       </c>
       <c r="J50" s="2">
-        <v>27.4</v>
+        <v>38.9</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>137</v>
@@ -2742,133 +2778,133 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2">
-        <v>753505</v>
+        <v>766018</v>
       </c>
       <c r="C51" s="2">
-        <v>1117617</v>
+        <v>1128445</v>
       </c>
       <c r="D51" s="2">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E51" s="2">
-        <v>69.230699999999999</v>
+        <v>65.221499999999992</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H51">
-        <v>0.62720329769885841</v>
+        <v>1.5883369669963161</v>
       </c>
       <c r="I51" s="2">
-        <v>115.25</v>
+        <v>100.78</v>
       </c>
       <c r="J51" s="2">
-        <v>14.600000000000001</v>
+        <v>27.4</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2">
-        <v>754227</v>
+        <v>753505</v>
       </c>
       <c r="C52" s="2">
-        <v>1100326</v>
+        <v>1117617</v>
       </c>
       <c r="D52" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E52" s="2">
-        <v>265.73399999999998</v>
+        <v>69.230699999999999</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52">
+        <v>0.62720329769885841</v>
+      </c>
+      <c r="I52" s="2">
+        <v>115.25</v>
+      </c>
+      <c r="J52" s="2">
+        <v>14.600000000000001</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L52" s="1">
         <v>2</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H52">
-        <v>0.65670085258865674</v>
-      </c>
-      <c r="I52" s="2">
-        <v>709.50000000000011</v>
-      </c>
-      <c r="J52" s="2">
-        <v>22.3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="L52" s="1">
-        <v>3.6</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>735616</v>
+        <v>754227</v>
       </c>
       <c r="C53" s="2">
-        <v>1102288</v>
+        <v>1100326</v>
       </c>
       <c r="D53" s="2">
         <v>50</v>
       </c>
       <c r="E53" s="2">
-        <v>44.864000000000004</v>
+        <v>265.73399999999998</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H53">
-        <v>1.5198719658575619</v>
+        <v>0.65670085258865674</v>
       </c>
       <c r="I53" s="2">
-        <v>1</v>
+        <v>709.50000000000011</v>
       </c>
       <c r="J53" s="2">
-        <v>27.500000000000004</v>
+        <v>22.3</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L53" s="1">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2">
-        <v>770648</v>
+        <v>735616</v>
       </c>
       <c r="C54" s="2">
-        <v>1051385</v>
+        <v>1102288</v>
       </c>
       <c r="D54" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E54" s="2">
-        <v>52.2455</v>
+        <v>44.864000000000004</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>4</v>
@@ -2877,302 +2913,302 @@
         <v>132</v>
       </c>
       <c r="H54">
-        <v>1.8858841851904287</v>
+        <v>1.5198719658575619</v>
       </c>
       <c r="I54" s="2">
-        <v>313.49999999999989</v>
+        <v>1</v>
       </c>
       <c r="J54" s="2">
-        <v>10.299999999999997</v>
+        <v>27.500000000000004</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L54" s="1">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="2">
+        <v>770648</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1051385</v>
+      </c>
+      <c r="D55" s="2">
         <v>60</v>
       </c>
-      <c r="B55" s="2">
-        <v>767955</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1050173</v>
-      </c>
-      <c r="D55" s="2">
-        <v>40</v>
-      </c>
       <c r="E55" s="2">
-        <v>103.52500000000001</v>
+        <v>52.2455</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H55">
-        <v>2.2821922997451614</v>
+        <v>1.8858841851904287</v>
       </c>
       <c r="I55" s="2">
-        <v>435.6</v>
+        <v>313.49999999999989</v>
       </c>
       <c r="J55" s="2">
-        <v>14</v>
+        <v>10.299999999999997</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L55" s="1">
-        <v>32.200000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2">
-        <v>765563</v>
+        <v>767955</v>
       </c>
       <c r="C56" s="2">
-        <v>1048665</v>
+        <v>1050173</v>
       </c>
       <c r="D56" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E56" s="2">
-        <v>375.09</v>
+        <v>103.52500000000001</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>133</v>
       </c>
       <c r="H56">
-        <v>1.3559922255896693</v>
+        <v>2.2821922997451614</v>
       </c>
       <c r="I56" s="2">
-        <v>333.29999999999995</v>
+        <v>435.6</v>
       </c>
       <c r="J56" s="2">
-        <v>10.899999999999999</v>
+        <v>14</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L56" s="1">
-        <v>10</v>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>762543</v>
+        <v>765563</v>
       </c>
       <c r="C57" s="2">
-        <v>1051328</v>
+        <v>1048665</v>
       </c>
       <c r="D57" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E57" s="2">
-        <v>252.12100000000001</v>
+        <v>375.09</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>133</v>
       </c>
       <c r="H57">
-        <v>0.87024199755850895</v>
+        <v>1.3559922255896693</v>
       </c>
       <c r="I57" s="2">
-        <v>587.40000000000009</v>
+        <v>333.29999999999995</v>
       </c>
       <c r="J57" s="2">
-        <v>18.600000000000001</v>
+        <v>10.899999999999999</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L57" s="1">
-        <v>1.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="2">
-        <v>761287</v>
+        <v>762543</v>
       </c>
       <c r="C58" s="2">
-        <v>1059372</v>
+        <v>1051328</v>
       </c>
       <c r="D58" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E58" s="2">
-        <v>52.634</v>
+        <v>252.12100000000001</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H58">
-        <v>7.1221722802140928</v>
+        <v>0.87024199755850895</v>
       </c>
       <c r="I58" s="2">
-        <v>409.19999999999993</v>
+        <v>587.40000000000009</v>
       </c>
       <c r="J58" s="2">
-        <v>13.199999999999996</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L58" s="1">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="2">
-        <v>759449</v>
+        <v>761287</v>
       </c>
       <c r="C59" s="2">
-        <v>1064727</v>
+        <v>1059372</v>
       </c>
       <c r="D59" s="2">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2">
-        <v>46.417999999999999</v>
+        <v>52.634</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H59">
-        <v>5.1831125104857341</v>
+        <v>7.1221722802140928</v>
       </c>
       <c r="I59" s="2">
-        <v>379.49999999999989</v>
+        <v>409.19999999999993</v>
       </c>
       <c r="J59" s="2">
-        <v>12.299999999999997</v>
+        <v>13.199999999999996</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L59" s="1">
-        <v>10.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2">
-        <v>776551</v>
+        <v>759449</v>
       </c>
       <c r="C60" s="2">
-        <v>1065147</v>
+        <v>1064727</v>
       </c>
       <c r="D60" s="2">
         <v>70</v>
       </c>
       <c r="E60" s="2">
-        <v>41.756</v>
+        <v>46.417999999999999</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H60">
-        <v>5.8217564882769164</v>
+        <v>5.1831125104857341</v>
       </c>
       <c r="I60" s="2">
-        <v>359.70000000000005</v>
+        <v>379.49999999999989</v>
       </c>
       <c r="J60" s="2">
-        <v>11.7</v>
+        <v>12.299999999999997</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L60" s="1">
-        <v>9</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="2">
-        <v>779259</v>
+        <v>776551</v>
       </c>
       <c r="C61" s="2">
-        <v>1064272</v>
+        <v>1065147</v>
       </c>
       <c r="D61" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E61" s="2">
-        <v>168.82330845630352</v>
+        <v>41.756</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H61">
-        <v>0.77861407591685994</v>
+        <v>5.8217564882769164</v>
       </c>
       <c r="I61" s="2">
-        <v>765.6</v>
+        <v>359.70000000000005</v>
       </c>
       <c r="J61" s="2">
-        <v>24</v>
+        <v>11.7</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L61" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="2">
-        <v>781525</v>
+        <v>779259</v>
       </c>
       <c r="C62" s="2">
-        <v>1041920</v>
+        <v>1064272</v>
       </c>
       <c r="D62" s="2">
         <v>90</v>
       </c>
       <c r="E62" s="2">
-        <v>124.30473644481755</v>
+        <v>168.82330845630352</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>0</v>
@@ -3181,92 +3217,92 @@
         <v>133</v>
       </c>
       <c r="H62">
-        <v>0.53356542234973403</v>
+        <v>0.77861407591685994</v>
       </c>
       <c r="I62" s="2">
-        <v>283.79999999999995</v>
+        <v>765.6</v>
       </c>
       <c r="J62" s="2">
-        <v>9.3999999999999986</v>
+        <v>24</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L62" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2">
-        <v>776414</v>
+        <v>781525</v>
       </c>
       <c r="C63" s="2">
-        <v>1042778</v>
+        <v>1041920</v>
       </c>
       <c r="D63" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2">
-        <v>100.43836</v>
+        <v>124.30473644481755</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H63">
-        <v>2.8319027927048159</v>
+        <v>0.53356542234973403</v>
       </c>
       <c r="I63" s="2">
-        <v>369.6</v>
+        <v>283.79999999999995</v>
       </c>
       <c r="J63" s="2">
-        <v>12</v>
+        <v>9.3999999999999986</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L63" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2">
-        <v>764262</v>
+        <v>776414</v>
       </c>
       <c r="C64" s="2">
-        <v>1019431</v>
+        <v>1042778</v>
       </c>
       <c r="D64" s="2">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="E64" s="2">
-        <v>120.08</v>
+        <v>100.43836</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H64">
-        <v>2.8832255869343313</v>
+        <v>2.8319027927048159</v>
       </c>
       <c r="I64" s="2">
-        <v>491.70000000000016</v>
+        <v>369.6</v>
       </c>
       <c r="J64" s="2">
-        <v>15.700000000000003</v>
+        <v>12</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L64" s="1">
         <v>1</v>
@@ -3274,34 +3310,34 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2">
-        <v>760338</v>
+        <v>764262</v>
       </c>
       <c r="C65" s="2">
-        <v>1022089</v>
+        <v>1019431</v>
       </c>
       <c r="D65" s="2">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2">
-        <v>80.641030000000001</v>
+        <v>120.08</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H65">
-        <v>3.0671407623025435</v>
+        <v>2.8832255869343313</v>
       </c>
       <c r="I65" s="2">
-        <v>874.5</v>
+        <v>491.70000000000016</v>
       </c>
       <c r="J65" s="2">
-        <v>27.299999999999997</v>
+        <v>15.700000000000003</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>137</v>
@@ -3312,57 +3348,57 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2">
-        <v>758933</v>
+        <v>760338</v>
       </c>
       <c r="C66" s="2">
-        <v>1052497</v>
+        <v>1022089</v>
       </c>
       <c r="D66" s="2">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E66" s="2">
-        <v>81.265559999999994</v>
+        <v>80.641030000000001</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H66">
-        <v>1.0943337320442896</v>
+        <v>3.0671407623025435</v>
       </c>
       <c r="I66" s="2">
-        <v>485.1</v>
+        <v>874.5</v>
       </c>
       <c r="J66" s="2">
-        <v>15.5</v>
+        <v>27.299999999999997</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L66" s="1">
-        <v>1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2">
-        <v>756469</v>
+        <v>758933</v>
       </c>
       <c r="C67" s="2">
-        <v>1061724</v>
+        <v>1052497</v>
       </c>
       <c r="D67" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E67" s="2">
-        <v>81.35342</v>
+        <v>81.265559999999994</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>0</v>
@@ -3371,36 +3407,36 @@
         <v>133</v>
       </c>
       <c r="H67">
-        <v>1.2327579244289051</v>
+        <v>1.0943337320442896</v>
       </c>
       <c r="I67" s="2">
-        <v>20.13</v>
+        <v>485.1</v>
       </c>
       <c r="J67" s="2">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L67" s="1">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2">
-        <v>765563</v>
+        <v>756469</v>
       </c>
       <c r="C68" s="2">
-        <v>1048665</v>
+        <v>1061724</v>
       </c>
       <c r="D68" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E68" s="2">
-        <v>268.30413348053617</v>
+        <v>81.35342</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>0</v>
@@ -3409,112 +3445,112 @@
         <v>133</v>
       </c>
       <c r="H68">
-        <v>0.52471815360048535</v>
+        <v>1.2327579244289051</v>
       </c>
       <c r="I68" s="2">
-        <v>910.80000000000007</v>
+        <v>20.13</v>
       </c>
       <c r="J68" s="2">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L68" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2">
-        <v>762265</v>
+        <v>765563</v>
       </c>
       <c r="C69" s="2">
-        <v>1048046</v>
+        <v>1048665</v>
       </c>
       <c r="D69" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E69" s="2">
-        <v>335.44645779093918</v>
+        <v>268.30413348053617</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H69">
-        <v>0.81333826886297733</v>
+        <v>0.52471815360048535</v>
       </c>
       <c r="I69" s="2">
-        <v>504.89999999999986</v>
+        <v>910.80000000000007</v>
       </c>
       <c r="J69" s="2">
-        <v>16.099999999999994</v>
+        <v>28.4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="L69" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2">
-        <v>780084</v>
+        <v>762265</v>
       </c>
       <c r="C70" s="2">
-        <v>1113491</v>
+        <v>1048046</v>
       </c>
       <c r="D70" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E70" s="2">
-        <v>78.122213151444612</v>
+        <v>335.44645779093918</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H70">
-        <v>0.35347802273038476</v>
+        <v>0.81333826886297733</v>
       </c>
       <c r="I70" s="2">
-        <v>428.99999999999989</v>
+        <v>504.89999999999986</v>
       </c>
       <c r="J70" s="2">
-        <v>13.799999999999997</v>
+        <v>16.099999999999994</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="L70" s="1">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2">
-        <v>778691</v>
+        <v>780084</v>
       </c>
       <c r="C71" s="2">
-        <v>1153298</v>
+        <v>1113491</v>
       </c>
       <c r="D71" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E71" s="2">
-        <v>52.687074301833377</v>
+        <v>78.122213151444612</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>0</v>
@@ -3523,36 +3559,36 @@
         <v>133</v>
       </c>
       <c r="H71">
-        <v>0.26080127859535385</v>
+        <v>0.35347802273038476</v>
       </c>
       <c r="I71" s="2">
-        <v>465.29999999999995</v>
+        <v>428.99999999999989</v>
       </c>
       <c r="J71" s="2">
-        <v>14.899999999999999</v>
+        <v>13.799999999999997</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L71" s="1">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2">
-        <v>783521</v>
+        <v>778691</v>
       </c>
       <c r="C72" s="2">
-        <v>1149758</v>
+        <v>1153298</v>
       </c>
       <c r="D72" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E72" s="2">
-        <v>80.573767241679747</v>
+        <v>52.687074301833377</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>0</v>
@@ -3561,150 +3597,150 @@
         <v>133</v>
       </c>
       <c r="H72">
-        <v>0.22763094615786725</v>
+        <v>0.26080127859535385</v>
       </c>
       <c r="I72" s="2">
-        <v>316.79999999999995</v>
+        <v>465.29999999999995</v>
       </c>
       <c r="J72" s="2">
-        <v>10.399999999999999</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>138</v>
       </c>
       <c r="L72" s="1">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2">
-        <v>784409</v>
+        <v>783521</v>
       </c>
       <c r="C73" s="2">
-        <v>1151257</v>
+        <v>1149758</v>
       </c>
       <c r="D73" s="2">
         <v>50</v>
       </c>
       <c r="E73" s="2">
-        <v>101.33120357943082</v>
+        <v>80.573767241679747</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H73">
-        <v>0.39386594120169527</v>
+        <v>0.22763094615786725</v>
       </c>
       <c r="I73" s="2">
-        <v>310.20000000000016</v>
+        <v>316.79999999999995</v>
       </c>
       <c r="J73" s="2">
-        <v>10.200000000000003</v>
+        <v>10.399999999999999</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L73" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2">
-        <v>787107</v>
+        <v>784409</v>
       </c>
       <c r="C74" s="2">
-        <v>1151577</v>
+        <v>1151257</v>
       </c>
       <c r="D74" s="2">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="E74" s="2">
-        <v>92.03</v>
+        <v>101.33120357943082</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H74">
-        <v>1.7925571600148331</v>
+        <v>0.39386594120169527</v>
       </c>
       <c r="I74" s="2">
-        <v>1194.6000000000001</v>
+        <v>310.20000000000016</v>
       </c>
       <c r="J74" s="2">
-        <v>37</v>
+        <v>10.200000000000003</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L74" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2">
-        <v>780462</v>
+        <v>787107</v>
       </c>
       <c r="C75" s="2">
-        <v>1156892</v>
+        <v>1151577</v>
       </c>
       <c r="D75" s="2">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2">
-        <v>148.20500000000001</v>
+        <v>92.03</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H75">
-        <v>1.50145403908131</v>
+        <v>1.7925571600148331</v>
       </c>
       <c r="I75" s="2">
-        <v>1181.3999999999999</v>
+        <v>1194.6000000000001</v>
       </c>
       <c r="J75" s="2">
-        <v>36.599999999999994</v>
+        <v>37</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2">
-        <v>778062</v>
+        <v>780462</v>
       </c>
       <c r="C76" s="2">
-        <v>1156872</v>
+        <v>1156892</v>
       </c>
       <c r="D76" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2">
-        <v>118.29112173599074</v>
+        <v>148.20500000000001</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>0</v>
@@ -3713,112 +3749,112 @@
         <v>132</v>
       </c>
       <c r="H76">
-        <v>0.53938393325055611</v>
+        <v>1.50145403908131</v>
       </c>
       <c r="I76" s="2">
-        <v>1062.6000000000001</v>
+        <v>1181.3999999999999</v>
       </c>
       <c r="J76" s="2">
-        <v>33</v>
+        <v>36.599999999999994</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L76" s="1">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2">
-        <v>776305</v>
+        <v>778062</v>
       </c>
       <c r="C77" s="2">
-        <v>1151489</v>
+        <v>1156872</v>
       </c>
       <c r="D77" s="2">
         <v>70</v>
       </c>
       <c r="E77" s="2">
-        <v>46.0184</v>
+        <v>118.29112173599074</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H77">
-        <v>1.0775098926616589</v>
+        <v>0.53938393325055611</v>
       </c>
       <c r="I77" s="2">
-        <v>395.99999999999989</v>
+        <v>1062.6000000000001</v>
       </c>
       <c r="J77" s="2">
-        <v>12.799999999999997</v>
-      </c>
-      <c r="K77" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K77" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L77" s="1">
-        <v>8.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2">
-        <v>786236</v>
+        <v>776305</v>
       </c>
       <c r="C78" s="2">
-        <v>1147991</v>
+        <v>1151489</v>
       </c>
       <c r="D78" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E78" s="2">
-        <v>78.16</v>
+        <v>46.0184</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H78">
-        <v>1.7312718434105914</v>
+        <v>1.0775098926616589</v>
       </c>
       <c r="I78" s="2">
-        <v>603.9</v>
+        <v>395.99999999999989</v>
       </c>
       <c r="J78" s="2">
-        <v>19.099999999999998</v>
+        <v>12.799999999999997</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L78" s="1">
-        <v>1.2</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2">
-        <v>789217</v>
+        <v>786236</v>
       </c>
       <c r="C79" s="2">
-        <v>1150401</v>
+        <v>1147991</v>
       </c>
       <c r="D79" s="2">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2">
-        <v>86.157819791311908</v>
+        <v>78.16</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>0</v>
@@ -3827,74 +3863,74 @@
         <v>132</v>
       </c>
       <c r="H79">
-        <v>0.99896599060039082</v>
+        <v>1.7312718434105914</v>
       </c>
       <c r="I79" s="2">
-        <v>405.90000000000009</v>
+        <v>603.9</v>
       </c>
       <c r="J79" s="2">
-        <v>13.100000000000001</v>
+        <v>19.099999999999998</v>
       </c>
       <c r="K79" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L79" s="1">
-        <v>9.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2">
-        <v>776305</v>
+        <v>789217</v>
       </c>
       <c r="C80" s="2">
-        <v>1151489</v>
+        <v>1150401</v>
       </c>
       <c r="D80" s="2">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2">
-        <v>135.04</v>
+        <v>86.157819791311908</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H80">
-        <v>4.535733223912632</v>
+        <v>0.99896599060039082</v>
       </c>
       <c r="I80" s="2">
-        <v>485.1</v>
+        <v>405.90000000000009</v>
       </c>
       <c r="J80" s="2">
-        <v>15.5</v>
+        <v>13.100000000000001</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L80" s="1">
-        <v>1.6</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2">
-        <v>769923</v>
+        <v>776305</v>
       </c>
       <c r="C81" s="2">
-        <v>1161878</v>
+        <v>1151489</v>
       </c>
       <c r="D81" s="2">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="E81" s="2">
-        <v>126.22220345131794</v>
+        <v>135.04</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>4</v>
@@ -3903,150 +3939,150 @@
         <v>132</v>
       </c>
       <c r="H81">
-        <v>0.61138103788612685</v>
+        <v>4.535733223912632</v>
       </c>
       <c r="I81" s="2">
-        <v>531.30000000000007</v>
+        <v>485.1</v>
       </c>
       <c r="J81" s="2">
-        <v>16.900000000000002</v>
+        <v>15.5</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>136</v>
       </c>
       <c r="L81" s="1">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2">
-        <v>768180</v>
+        <v>769923</v>
       </c>
       <c r="C82" s="2">
-        <v>1074182</v>
+        <v>1161878</v>
       </c>
       <c r="D82" s="2">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E82" s="2">
-        <v>80.387599999999992</v>
+        <v>126.22220345131794</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H82">
-        <v>3.9833805154542326</v>
+        <v>0.61138103788612685</v>
       </c>
       <c r="I82" s="2">
-        <v>6.6000000000000005</v>
+        <v>531.30000000000007</v>
       </c>
       <c r="J82" s="2">
-        <v>1</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>137</v>
+        <v>16.900000000000002</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="L82" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2">
-        <v>759997</v>
+        <v>768180</v>
       </c>
       <c r="C83" s="2">
-        <v>1083369</v>
+        <v>1074182</v>
       </c>
       <c r="D83" s="2">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2">
-        <v>126.29041521592521</v>
+        <v>80.387599999999992</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H83">
-        <v>0.610173790568042</v>
+        <v>3.9833805154542326</v>
       </c>
       <c r="I83" s="2">
-        <v>1329.9000000000003</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="J83" s="2">
-        <v>41.100000000000009</v>
-      </c>
-      <c r="K83" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>137</v>
       </c>
       <c r="L83" s="1">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2">
-        <v>757870</v>
+        <v>759997</v>
       </c>
       <c r="C84" s="2">
-        <v>1086634</v>
+        <v>1083369</v>
       </c>
       <c r="D84" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E84" s="2">
-        <v>114.01861294940467</v>
+        <v>126.29041521592521</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H84">
-        <v>0.54631375690261597</v>
+        <v>0.610173790568042</v>
       </c>
       <c r="I84" s="2">
-        <v>544.5</v>
+        <v>1329.9000000000003</v>
       </c>
       <c r="J84" s="2">
-        <v>17.3</v>
+        <v>41.100000000000009</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L84" s="1">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2">
-        <v>747427</v>
+        <v>757870</v>
       </c>
       <c r="C85" s="2">
-        <v>1075231</v>
+        <v>1086634</v>
       </c>
       <c r="D85" s="2">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E85" s="2">
-        <v>134.53231571436109</v>
+        <v>114.01861294940467</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>0</v>
@@ -4055,83 +4091,83 @@
         <v>132</v>
       </c>
       <c r="H85">
-        <v>0.63093323194410245</v>
+        <v>0.54631375690261597</v>
       </c>
       <c r="I85" s="2">
-        <v>293.69999999999987</v>
+        <v>544.5</v>
       </c>
       <c r="J85" s="2">
-        <v>9.6999999999999957</v>
+        <v>17.3</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L85" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2">
-        <v>745042</v>
+        <v>747427</v>
       </c>
       <c r="C86" s="2">
-        <v>1072234</v>
+        <v>1075231</v>
       </c>
       <c r="D86" s="2">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E86" s="2">
-        <v>149.29300000000001</v>
+        <v>134.53231571436109</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H86">
-        <v>1.2845207101345031</v>
+        <v>0.63093323194410245</v>
       </c>
       <c r="I86" s="2">
-        <v>452.1</v>
+        <v>293.69999999999987</v>
       </c>
       <c r="J86" s="2">
-        <v>14.5</v>
+        <v>9.6999999999999957</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>136</v>
       </c>
       <c r="L86" s="1">
-        <v>3.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2">
-        <v>791804</v>
+        <v>745042</v>
       </c>
       <c r="C87" s="2">
-        <v>1109706</v>
+        <v>1072234</v>
       </c>
       <c r="D87" s="2">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E87" s="2">
-        <v>222.797</v>
+        <v>149.29300000000001</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>133</v>
       </c>
       <c r="H87">
-        <v>1.1567792139277235</v>
+        <v>1.2845207101345031</v>
       </c>
       <c r="I87" s="2">
         <v>452.1</v>
@@ -4143,80 +4179,80 @@
         <v>136</v>
       </c>
       <c r="L87" s="1">
-        <v>10</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2">
-        <v>763251</v>
+        <v>791804</v>
       </c>
       <c r="C88" s="2">
-        <v>1154519</v>
+        <v>1109706</v>
       </c>
       <c r="D88" s="2">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2">
-        <v>261.55800341238916</v>
+        <v>222.797</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>133</v>
       </c>
       <c r="H88">
-        <v>0.28771409146771953</v>
+        <v>1.1567792139277235</v>
       </c>
       <c r="I88" s="2">
-        <v>1065.9000000000001</v>
+        <v>452.1</v>
       </c>
       <c r="J88" s="2">
-        <v>33.1</v>
+        <v>14.5</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L88" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2">
-        <v>773891</v>
+        <v>763251</v>
       </c>
       <c r="C89" s="2">
-        <v>1135812</v>
+        <v>1154519</v>
       </c>
       <c r="D89" s="2">
         <v>10</v>
       </c>
       <c r="E89" s="2">
-        <v>227.29440946418654</v>
+        <v>261.55800341238916</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H89">
-        <v>0.5797414763770663</v>
+        <v>0.28771409146771953</v>
       </c>
       <c r="I89" s="2">
-        <v>564.30000000000018</v>
+        <v>1065.9000000000001</v>
       </c>
       <c r="J89" s="2">
-        <v>17.900000000000002</v>
+        <v>33.1</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L89" s="1">
         <v>2</v>
@@ -4224,209 +4260,209 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2">
-        <v>770201</v>
+        <v>773891</v>
       </c>
       <c r="C90" s="2">
-        <v>1067188</v>
+        <v>1135812</v>
       </c>
       <c r="D90" s="2">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="E90" s="2">
-        <v>80.27179000000001</v>
+        <v>227.29440946418654</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H90">
-        <v>4.1080463113619317</v>
+        <v>0.5797414763770663</v>
       </c>
       <c r="I90" s="2">
-        <v>973.50000000000011</v>
+        <v>564.30000000000018</v>
       </c>
       <c r="J90" s="2">
-        <v>30.3</v>
+        <v>17.900000000000002</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L90" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2">
-        <v>757881</v>
+        <v>770201</v>
       </c>
       <c r="C91" s="2">
-        <v>1067102</v>
+        <v>1067188</v>
       </c>
       <c r="D91" s="2">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="E91" s="2">
-        <v>81.210939999999994</v>
+        <v>80.27179000000001</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H91">
-        <v>1.7122021383708106</v>
+        <v>4.1080463113619317</v>
       </c>
       <c r="I91" s="2">
-        <v>666.6</v>
+        <v>973.50000000000011</v>
       </c>
       <c r="J91" s="2">
-        <v>21</v>
+        <v>30.3</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L91" s="1">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2">
-        <v>755487</v>
+        <v>757881</v>
       </c>
       <c r="C92" s="2">
-        <v>1065594</v>
+        <v>1067102</v>
       </c>
       <c r="D92" s="2">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2">
-        <v>195.05264319302242</v>
+        <v>81.210939999999994</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H92">
-        <v>0.50206600564484538</v>
+        <v>1.7122021383708106</v>
       </c>
       <c r="I92" s="2">
-        <v>422.40000000000009</v>
+        <v>666.6</v>
       </c>
       <c r="J92" s="2">
-        <v>13.600000000000001</v>
+        <v>21</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L92" s="1">
-        <v>8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2">
-        <v>767760</v>
+        <v>755487</v>
       </c>
       <c r="C93" s="2">
-        <v>1113397</v>
+        <v>1065594</v>
       </c>
       <c r="D93" s="2">
         <v>30</v>
       </c>
       <c r="E93" s="2">
-        <v>538.4152596717347</v>
+        <v>195.05264319302242</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H93">
-        <v>0.79163192463007459</v>
+        <v>0.50206600564484538</v>
       </c>
       <c r="I93" s="2">
-        <v>13.54</v>
+        <v>422.40000000000009</v>
       </c>
       <c r="J93" s="2">
-        <v>0</v>
+        <v>13.600000000000001</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L93" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2">
-        <v>797239</v>
+        <v>767760</v>
       </c>
       <c r="C94" s="2">
-        <v>1105873</v>
+        <v>1113397</v>
       </c>
       <c r="D94" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E94" s="2">
-        <v>151.0427981807459</v>
+        <v>538.4152596717347</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H94">
-        <v>0.47380525591015693</v>
+        <v>0.79163192463007459</v>
       </c>
       <c r="I94" s="2">
-        <v>1112.1000000000001</v>
+        <v>13.54</v>
       </c>
       <c r="J94" s="2">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L94" s="1">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2">
-        <v>802341</v>
+        <v>797239</v>
       </c>
       <c r="C95" s="2">
-        <v>1106214</v>
+        <v>1105873</v>
       </c>
       <c r="D95" s="2">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="E95" s="2">
-        <v>718.005</v>
+        <v>151.0427981807459</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>0</v>
@@ -4435,36 +4471,36 @@
         <v>132</v>
       </c>
       <c r="H95">
-        <v>1.4219325831654466</v>
+        <v>0.47380525591015693</v>
       </c>
       <c r="I95" s="2">
-        <v>343.19999999999987</v>
+        <v>1112.1000000000001</v>
       </c>
       <c r="J95" s="2">
-        <v>11.199999999999996</v>
+        <v>34.5</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L95" s="1">
-        <v>2.7</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2">
-        <v>778299</v>
+        <v>802341</v>
       </c>
       <c r="C96" s="2">
-        <v>1109301</v>
+        <v>1106214</v>
       </c>
       <c r="D96" s="2">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="E96" s="2">
-        <v>1857.1726427331009</v>
+        <v>718.005</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>0</v>
@@ -4473,36 +4509,36 @@
         <v>132</v>
       </c>
       <c r="H96">
-        <v>0.66789955803560397</v>
+        <v>1.4219325831654466</v>
       </c>
       <c r="I96" s="2">
-        <v>1953.6000000000001</v>
+        <v>343.19999999999987</v>
       </c>
       <c r="J96" s="2">
-        <v>60</v>
+        <v>11.199999999999996</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L96" s="1">
-        <v>8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2">
-        <v>768426</v>
+        <v>778299</v>
       </c>
       <c r="C97" s="2">
-        <v>1104753</v>
+        <v>1109301</v>
       </c>
       <c r="D97" s="2">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="E97" s="2">
-        <v>169.80568710245583</v>
+        <v>1857.1726427331009</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>0</v>
@@ -4511,188 +4547,188 @@
         <v>132</v>
       </c>
       <c r="H97">
-        <v>0.81166660979672611</v>
+        <v>0.66789955803560397</v>
       </c>
       <c r="I97" s="2">
-        <v>382.80000000000007</v>
+        <v>1953.6000000000001</v>
       </c>
       <c r="J97" s="2">
-        <v>12.400000000000002</v>
+        <v>60</v>
       </c>
       <c r="K97" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L97" s="1">
-        <v>1.1000000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2">
-        <v>790490</v>
+        <v>768426</v>
       </c>
       <c r="C98" s="2">
-        <v>1086430</v>
+        <v>1104753</v>
       </c>
       <c r="D98" s="2">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E98" s="2">
-        <v>222.797</v>
+        <v>169.80568710245583</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H98">
-        <v>1.1567792139277235</v>
+        <v>0.81166660979672611</v>
       </c>
       <c r="I98" s="2">
-        <v>419.1</v>
+        <v>382.80000000000007</v>
       </c>
       <c r="J98" s="2">
-        <v>13.5</v>
+        <v>12.400000000000002</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L98" s="1">
-        <v>8</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2">
-        <v>775917</v>
+        <v>790490</v>
       </c>
       <c r="C99" s="2">
-        <v>1106599</v>
+        <v>1086430</v>
       </c>
       <c r="D99" s="2">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="E99" s="2">
-        <v>81.979970000000009</v>
+        <v>222.797</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H99">
-        <v>1.4035733833114956</v>
+        <v>1.1567792139277235</v>
       </c>
       <c r="I99" s="2">
-        <v>706.20000000000016</v>
+        <v>419.1</v>
       </c>
       <c r="J99" s="2">
-        <v>22.200000000000003</v>
+        <v>13.5</v>
       </c>
       <c r="K99" s="4" t="s">
         <v>136</v>
       </c>
       <c r="L99" s="1">
-        <v>1.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2">
-        <v>763055</v>
+        <v>775917</v>
       </c>
       <c r="C100" s="2">
-        <v>1140799</v>
+        <v>1106599</v>
       </c>
       <c r="D100" s="2">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="E100" s="2">
-        <v>547.77499999999998</v>
+        <v>81.979970000000009</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H100">
-        <v>1.3348378864170283</v>
+        <v>1.4035733833114956</v>
       </c>
       <c r="I100" s="2">
-        <v>1095.6000000000001</v>
+        <v>706.20000000000016</v>
       </c>
       <c r="J100" s="2">
-        <v>34</v>
+        <v>22.200000000000003</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L100" s="1">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2">
-        <v>761622</v>
+        <v>763055</v>
       </c>
       <c r="C101" s="2">
-        <v>1131842</v>
+        <v>1140799</v>
       </c>
       <c r="D101" s="2">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="E101" s="2">
-        <v>662.69</v>
+        <v>547.77499999999998</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H101">
-        <v>1.7365493822624836</v>
+        <v>1.3348378864170283</v>
       </c>
       <c r="I101" s="2">
-        <v>498.29999999999995</v>
+        <v>1095.6000000000001</v>
       </c>
       <c r="J101" s="2">
-        <v>15.899999999999999</v>
+        <v>34</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L101" s="1">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2">
-        <v>793026</v>
+        <v>761622</v>
       </c>
       <c r="C102" s="2">
-        <v>1107330</v>
+        <v>1131842</v>
       </c>
       <c r="D102" s="2">
         <v>70</v>
       </c>
       <c r="E102" s="2">
-        <v>103.26</v>
+        <v>662.69</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>0</v>
@@ -4701,302 +4737,302 @@
         <v>132</v>
       </c>
       <c r="H102">
-        <v>1.0370690873218742</v>
+        <v>1.7365493822624836</v>
       </c>
       <c r="I102" s="2">
-        <v>257.40000000000009</v>
+        <v>498.29999999999995</v>
       </c>
       <c r="J102" s="2">
-        <v>8.6000000000000014</v>
+        <v>15.899999999999999</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>136</v>
       </c>
       <c r="L102" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2">
-        <v>790801</v>
+        <v>793026</v>
       </c>
       <c r="C103" s="2">
-        <v>1122525</v>
+        <v>1107330</v>
       </c>
       <c r="D103" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E103" s="2">
-        <v>158.25</v>
+        <v>103.26</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H103">
-        <v>1.5392400545722313</v>
+        <v>1.0370690873218742</v>
       </c>
       <c r="I103" s="2">
-        <v>699.6</v>
+        <v>257.40000000000009</v>
       </c>
       <c r="J103" s="2">
-        <v>22</v>
+        <v>8.6000000000000014</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L103" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2">
-        <v>764786</v>
+        <v>790801</v>
       </c>
       <c r="C104" s="2">
-        <v>1109796</v>
+        <v>1122525</v>
       </c>
       <c r="D104" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E104" s="2">
-        <v>80.55556</v>
+        <v>158.25</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H104">
-        <v>3.0367454499591053</v>
+        <v>1.5392400545722313</v>
       </c>
       <c r="I104" s="2">
-        <v>171.60000000000002</v>
+        <v>699.6</v>
       </c>
       <c r="J104" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K104" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L104" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2">
-        <v>799813</v>
+        <v>764786</v>
       </c>
       <c r="C105" s="2">
-        <v>1085311</v>
+        <v>1109796</v>
       </c>
       <c r="D105" s="2">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="E105" s="2">
-        <v>57.437249999999999</v>
+        <v>80.55556</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H105">
-        <v>5.3522259465583994</v>
+        <v>3.0367454499591053</v>
       </c>
       <c r="I105" s="2">
-        <v>313.50000000000017</v>
+        <v>171.60000000000002</v>
       </c>
       <c r="J105" s="2">
-        <v>10.300000000000004</v>
+        <v>6</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L105" s="1">
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="2">
+        <v>799813</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1085311</v>
+      </c>
+      <c r="D106" s="2">
+        <v>150</v>
+      </c>
+      <c r="E106" s="2">
+        <v>57.437249999999999</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H106">
+        <v>5.3522259465583994</v>
+      </c>
+      <c r="I106" s="2">
+        <v>313.50000000000017</v>
+      </c>
+      <c r="J106" s="2">
+        <v>10.300000000000004</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L106" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B106">
+      <c r="B107">
         <v>764455</v>
       </c>
-      <c r="C106">
+      <c r="C107">
         <v>1024168</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D107" s="5">
         <v>80</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E107" s="5">
         <v>60.018000000000001</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F107" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G106" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H106">
+      <c r="G107" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H107">
         <v>1.8260000000000001</v>
       </c>
-      <c r="I106" s="5">
+      <c r="I107" s="5">
         <v>402.13</v>
       </c>
-      <c r="J106" s="6">
+      <c r="J107" s="6">
         <v>45.2</v>
       </c>
-      <c r="K106" s="3" t="s">
+      <c r="K107" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L106" s="1">
+      <c r="L107" s="1">
         <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
-      <c r="A107" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107" s="7">
-        <v>758901</v>
-      </c>
-      <c r="C107" s="7">
-        <v>1049812</v>
-      </c>
-      <c r="D107" s="7">
-        <v>50</v>
-      </c>
-      <c r="E107" s="7">
-        <v>87.34</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H107">
-        <v>1.3031927663197467</v>
-      </c>
-      <c r="I107" s="7">
-        <v>402.6</v>
-      </c>
-      <c r="J107" s="7">
-        <v>13</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L107" s="10">
-        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B108" s="7">
-        <v>766813</v>
+        <v>758901</v>
       </c>
       <c r="C108" s="7">
-        <v>1036149</v>
+        <v>1049812</v>
       </c>
       <c r="D108" s="7">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E108" s="7">
-        <v>158.22999999999999</v>
+        <v>87.34</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H108">
-        <v>3.1714959211780909</v>
+        <v>1.3031927663197467</v>
       </c>
       <c r="I108" s="7">
-        <v>465.29999999999995</v>
+        <v>402.6</v>
       </c>
       <c r="J108" s="7">
-        <v>14.899999999999999</v>
+        <v>13</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L108" s="10">
-        <v>1.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B109" s="7">
-        <v>789336</v>
+        <v>766813</v>
       </c>
       <c r="C109" s="7">
-        <v>1080157</v>
+        <v>1036149</v>
       </c>
       <c r="D109" s="7">
         <v>90</v>
       </c>
       <c r="E109" s="7">
-        <v>67.105649999999997</v>
+        <v>158.22999999999999</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H109">
-        <v>2.1467062070193399</v>
+        <v>3.1714959211780909</v>
       </c>
       <c r="I109" s="7">
-        <v>382.79999999999995</v>
+        <v>465.29999999999995</v>
       </c>
       <c r="J109" s="7">
-        <v>12.399999999999999</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L109" s="10">
-        <v>5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B110" s="7">
-        <v>764811</v>
+        <v>789336</v>
       </c>
       <c r="C110" s="7">
-        <v>1064466</v>
+        <v>1080157</v>
       </c>
       <c r="D110" s="7">
         <v>90</v>
       </c>
       <c r="E110" s="7">
-        <v>176.47930251572495</v>
+        <v>67.105649999999997</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>0</v>
@@ -5005,162 +5041,162 @@
         <v>132</v>
       </c>
       <c r="H110">
-        <v>0.84416848349815798</v>
+        <v>2.1467062070193399</v>
       </c>
       <c r="I110" s="7">
-        <v>584.1</v>
+        <v>382.79999999999995</v>
       </c>
       <c r="J110" s="7">
-        <v>18.5</v>
+        <v>12.399999999999999</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L110" s="10">
-        <v>1.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B111" s="7">
-        <v>785828</v>
+        <v>764811</v>
       </c>
       <c r="C111" s="7">
-        <v>1106079</v>
+        <v>1064466</v>
       </c>
       <c r="D111" s="7">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E111" s="7">
-        <v>41.953994451666958</v>
+        <v>176.47930251572495</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H111">
-        <v>0.36360164884942919</v>
+        <v>0.84416848349815798</v>
       </c>
       <c r="I111" s="7">
-        <v>148.50000000000014</v>
+        <v>584.1</v>
       </c>
       <c r="J111" s="7">
-        <v>5.3000000000000043</v>
+        <v>18.5</v>
       </c>
       <c r="K111" s="4" t="s">
         <v>136</v>
       </c>
       <c r="L111" s="10">
-        <v>5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112" s="7">
-        <v>788376</v>
+        <v>785828</v>
       </c>
       <c r="C112" s="7">
-        <v>1125189</v>
+        <v>1106079</v>
       </c>
       <c r="D112" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E112" s="7">
-        <v>167.56762030149508</v>
+        <v>41.953994451666958</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H112">
-        <v>0.37835042629432836</v>
+        <v>0.36360164884942919</v>
       </c>
       <c r="I112" s="7">
-        <v>2164.8000000000006</v>
+        <v>148.50000000000014</v>
       </c>
       <c r="J112" s="7">
-        <v>66.400000000000006</v>
+        <v>5.3000000000000043</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L112" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B113" s="7">
-        <v>743104</v>
+        <v>788376</v>
       </c>
       <c r="C113" s="7">
-        <v>1039272</v>
+        <v>1125189</v>
       </c>
       <c r="D113" s="7">
         <v>50</v>
       </c>
       <c r="E113" s="7">
-        <v>169.18663654441181</v>
+        <v>167.56762030149508</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H113">
-        <v>0.809935982928781</v>
+        <v>0.37835042629432836</v>
       </c>
       <c r="I113" s="7">
-        <v>15.25</v>
+        <v>2164.8000000000006</v>
       </c>
       <c r="J113" s="7">
-        <v>0</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L113" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B114" s="7">
-        <v>742329</v>
+        <v>743104</v>
       </c>
       <c r="C114" s="7">
-        <v>1066700</v>
+        <v>1039272</v>
       </c>
       <c r="D114" s="7">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E114" s="7">
-        <v>204.38405602317238</v>
+        <v>169.18663654441181</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>133</v>
       </c>
       <c r="H114">
-        <v>0.99294209259521438</v>
+        <v>0.809935982928781</v>
       </c>
       <c r="I114" s="7">
-        <v>80.23</v>
+        <v>15.25</v>
       </c>
       <c r="J114" s="7">
         <v>0</v>
@@ -5174,31 +5210,31 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B115" s="7">
-        <v>793255</v>
+        <v>742329</v>
       </c>
       <c r="C115" s="7">
-        <v>1050364</v>
+        <v>1066700</v>
       </c>
       <c r="D115" s="7">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E115" s="7">
-        <v>81.19708</v>
+        <v>204.38405602317238</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H115">
-        <v>1.1910961498725807</v>
+        <v>0.99294209259521438</v>
       </c>
       <c r="I115" s="7">
-        <v>18.23</v>
+        <v>80.23</v>
       </c>
       <c r="J115" s="7">
         <v>0</v>
@@ -5212,171 +5248,171 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B116" s="7">
-        <v>773955</v>
+        <v>793255</v>
       </c>
       <c r="C116" s="7">
-        <v>1088093</v>
+        <v>1050364</v>
       </c>
       <c r="D116" s="7">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E116" s="7">
-        <v>599.32279985834759</v>
+        <v>81.19708</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H116">
-        <v>0.72799611279483467</v>
+        <v>1.1910961498725807</v>
       </c>
       <c r="I116" s="7">
-        <v>567.6</v>
+        <v>18.23</v>
       </c>
       <c r="J116" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L116" s="10">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B117" s="7">
-        <v>768183</v>
+        <v>773955</v>
       </c>
       <c r="C117" s="7">
-        <v>1054981</v>
+        <v>1088093</v>
       </c>
       <c r="D117" s="7">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E117" s="7">
-        <v>104.89677566544054</v>
+        <v>599.32279985834759</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H117">
-        <v>0.48512099877925446</v>
+        <v>0.72799611279483467</v>
       </c>
       <c r="I117" s="7">
-        <v>633.6</v>
+        <v>567.6</v>
       </c>
       <c r="J117" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L117" s="11">
-        <v>1.2</v>
+      <c r="L117" s="10">
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B118" s="7">
-        <v>780323</v>
+        <v>768183</v>
       </c>
       <c r="C118" s="7">
-        <v>1156741</v>
+        <v>1054981</v>
       </c>
       <c r="D118" s="7">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="E118" s="7">
-        <v>80.551180000000002</v>
+        <v>104.89677566544054</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>134</v>
       </c>
       <c r="H118">
-        <v>3.6110861401070466</v>
+        <v>0.48512099877925446</v>
       </c>
       <c r="I118" s="7">
-        <v>739.20000000000016</v>
+        <v>633.6</v>
       </c>
       <c r="J118" s="7">
-        <v>23.200000000000003</v>
+        <v>20</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L118" s="11">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B119" s="7">
-        <v>758411</v>
+        <v>780323</v>
       </c>
       <c r="C119" s="7">
-        <v>1098298</v>
-      </c>
-      <c r="D119" s="9">
-        <v>90</v>
+        <v>1156741</v>
+      </c>
+      <c r="D119" s="7">
+        <v>190</v>
       </c>
       <c r="E119" s="7">
-        <v>95.174999999999997</v>
+        <v>80.551180000000002</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H119">
-        <v>2.6415562552428673</v>
+        <v>3.6110861401070466</v>
       </c>
       <c r="I119" s="7">
-        <v>237.60000000000002</v>
+        <v>739.20000000000016</v>
       </c>
       <c r="J119" s="7">
-        <v>8</v>
+        <v>23.200000000000003</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L119" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B120" s="7">
-        <v>792197</v>
+        <v>758411</v>
       </c>
       <c r="C120" s="7">
-        <v>1097168</v>
+        <v>1098298</v>
       </c>
       <c r="D120" s="9">
         <v>90</v>
       </c>
       <c r="E120" s="7">
-        <v>80.465119999999999</v>
+        <v>95.174999999999997</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>4</v>
@@ -5385,150 +5421,150 @@
         <v>132</v>
       </c>
       <c r="H120">
-        <v>2.9608782441384585</v>
+        <v>2.6415562552428673</v>
       </c>
       <c r="I120" s="7">
-        <v>848.1</v>
+        <v>237.60000000000002</v>
       </c>
       <c r="J120" s="7">
-        <v>26.5</v>
+        <v>8</v>
       </c>
       <c r="K120" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L120" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B121" s="7">
-        <v>780534</v>
+        <v>792197</v>
       </c>
       <c r="C121" s="7">
-        <v>1149396</v>
+        <v>1097168</v>
       </c>
       <c r="D121" s="9">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E121" s="7">
-        <v>198.23</v>
+        <v>80.465119999999999</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H121">
-        <v>1.0230000000000001</v>
+        <v>2.9608782441384585</v>
       </c>
       <c r="I121" s="7">
-        <v>471.9</v>
+        <v>848.1</v>
       </c>
       <c r="J121" s="7">
-        <v>15.099999999999998</v>
+        <v>26.5</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L121" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B122" s="7">
-        <v>796244</v>
+        <v>780534</v>
       </c>
       <c r="C122" s="7">
-        <v>1176249</v>
+        <v>1149396</v>
       </c>
       <c r="D122" s="9">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E122" s="7">
-        <v>231.05</v>
+        <v>198.23</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H122">
-        <v>1.31</v>
+        <v>1.0230000000000001</v>
       </c>
       <c r="I122" s="7">
-        <v>567.6</v>
+        <v>471.9</v>
       </c>
       <c r="J122" s="7">
-        <v>18</v>
+        <v>15.099999999999998</v>
       </c>
       <c r="K122" s="4" t="s">
         <v>136</v>
       </c>
       <c r="L122" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B123" s="7">
-        <v>760533</v>
+        <v>796244</v>
       </c>
       <c r="C123" s="7">
-        <v>1168876</v>
+        <v>1176249</v>
       </c>
       <c r="D123" s="9">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E123" s="7">
-        <v>139.24</v>
+        <v>231.05</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H123">
-        <v>0.82300000000000006</v>
+        <v>1.31</v>
       </c>
       <c r="I123" s="7">
-        <v>339.90000000000009</v>
+        <v>567.6</v>
       </c>
       <c r="J123" s="7">
-        <v>11.100000000000001</v>
+        <v>18</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L123" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B124" s="7">
-        <v>769167</v>
+        <v>760533</v>
       </c>
       <c r="C124" s="7">
-        <v>1125933</v>
+        <v>1168876</v>
       </c>
       <c r="D124" s="9">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E124" s="7">
-        <v>168.36</v>
+        <v>139.24</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>0</v>
@@ -5537,36 +5573,36 @@
         <v>133</v>
       </c>
       <c r="H124">
-        <v>0.623</v>
+        <v>0.82300000000000006</v>
       </c>
       <c r="I124" s="7">
-        <v>527.99999999999989</v>
+        <v>339.90000000000009</v>
       </c>
       <c r="J124" s="7">
-        <v>16.799999999999997</v>
+        <v>11.100000000000001</v>
       </c>
       <c r="K124" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L124" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B125" s="7">
-        <v>755256</v>
+        <v>769167</v>
       </c>
       <c r="C125" s="7">
-        <v>1131452</v>
+        <v>1125933</v>
       </c>
       <c r="D125" s="9">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E125" s="7">
-        <v>158.26</v>
+        <v>168.36</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>0</v>
@@ -5575,56 +5611,94 @@
         <v>133</v>
       </c>
       <c r="H125">
-        <v>0.52300000000000002</v>
+        <v>0.623</v>
       </c>
       <c r="I125" s="7">
-        <v>551.1</v>
+        <v>527.99999999999989</v>
       </c>
       <c r="J125" s="7">
-        <v>17.5</v>
+        <v>16.799999999999997</v>
       </c>
       <c r="K125" s="4" t="s">
         <v>137</v>
       </c>
       <c r="L125" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" s="7">
+        <v>755256</v>
+      </c>
+      <c r="C126" s="7">
+        <v>1131452</v>
+      </c>
+      <c r="D126" s="9">
+        <v>100</v>
+      </c>
+      <c r="E126" s="7">
+        <v>158.26</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H126">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="I126" s="7">
+        <v>551.1</v>
+      </c>
+      <c r="J126" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L126" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="8">
+      <c r="B127" s="8">
         <v>780534</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C127" s="8">
         <v>1149396</v>
       </c>
-      <c r="D126" s="8">
+      <c r="D127" s="8">
         <v>40</v>
       </c>
-      <c r="E126" s="8">
+      <c r="E127" s="8">
         <v>85.122500000000002</v>
       </c>
-      <c r="F126" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G126" s="8" t="s">
+      <c r="F127" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G127" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H126">
+      <c r="H127">
         <v>3.0367454499591053</v>
       </c>
-      <c r="I126" s="8">
+      <c r="I127" s="8">
         <v>633.6</v>
       </c>
-      <c r="J126" s="8">
+      <c r="J127" s="8">
         <v>20</v>
       </c>
-      <c r="K126" s="4" t="s">
+      <c r="K127" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L126" s="10">
+      <c r="L127" s="10">
         <v>2.5</v>
       </c>
     </row>
